--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3034.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3034.xlsx
@@ -351,13 +351,13 @@
         <v>1.140804625345998</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.206400313817549</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3034.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3034.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.140804625345998</v>
+        <v>0.8160085082054138</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.810768961906433</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.709448337554932</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.597153425216675</v>
       </c>
       <c r="E1">
-        <v>1.206400313817549</v>
+        <v>0.91977858543396</v>
       </c>
     </row>
   </sheetData>
